--- a/plantillasSap/21102022/6211-21102022.xlsx
+++ b/plantillasSap/21102022/6211-21102022.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="UNION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UNION'!$A$16:$E$64</definedName>
@@ -652,7 +652,7 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>6211</t>
+          <t>4010066211</t>
         </is>
       </c>
       <c r="D4" s="6" t="n"/>
